--- a/Manuscript_tables/Table_S12.xlsx
+++ b/Manuscript_tables/Table_S12.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,153 +8,78 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiefisher/SurveyPaper/Manuscript_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58679AF-C9B7-DA40-900F-FB90383979A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D340C-EEC2-6E42-8EF6-71BAC8D901B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="520" windowWidth="27420" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="27520" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shannon_Weiner_substr_table" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_S12" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Berries/Needles</t>
-  </si>
-  <si>
-    <t>Compost</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Sea Grass</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Feather</t>
-  </si>
-  <si>
-    <t>Mold</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>Bulb</t>
-  </si>
-  <si>
-    <t>Flotsam</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Soil/Grass/Twigs</t>
-  </si>
-  <si>
-    <t>Soil/Twigs/Fungus</t>
-  </si>
-  <si>
-    <t>Sawdust</t>
-  </si>
-  <si>
-    <t>Soil/Bark</t>
-  </si>
-  <si>
-    <t>Flower/Leaves</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
-    <t>Lichen</t>
-  </si>
-  <si>
-    <t>Humus</t>
-  </si>
-  <si>
-    <t>Leaves/Bark</t>
-  </si>
-  <si>
-    <t>Sap</t>
-  </si>
-  <si>
-    <t>Soil/Grass</t>
-  </si>
-  <si>
-    <t>Seed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Bark</t>
+  </si>
+  <si>
+    <t>Duff</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Fungus</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Needles</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Pine Cone</t>
+  </si>
+  <si>
+    <t>Plant Matter</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Soil</t>
   </si>
   <si>
     <t>Soil/Plant Matter</t>
   </si>
   <si>
-    <t>Nut</t>
+    <t>Twigs</t>
   </si>
   <si>
     <t>Wood</t>
   </si>
   <si>
-    <t>Needles</t>
-  </si>
-  <si>
-    <t>Twigs</t>
-  </si>
-  <si>
-    <t>Pine Cone</t>
-  </si>
-  <si>
-    <t>Fruit/Leaves</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Fungus</t>
-  </si>
-  <si>
-    <t>Duff</t>
-  </si>
-  <si>
-    <t>Plant Matter</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Leaves</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>Bark</t>
-  </si>
-  <si>
-    <t>Specific_substrate</t>
-  </si>
-  <si>
-    <t>H' index</t>
+    <t>H' Index</t>
   </si>
   <si>
     <t>Sampling density</t>
+  </si>
+  <si>
+    <t>Substrate type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -989,468 +914,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.0686490048204504</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.5777347251774998</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.7010939223403501</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.4690584868788599</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.7882875076101201</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.69314718055994495</v>
+        <v>3.0164539990864898</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.69314718055994495</v>
+        <v>2.6156305770275501</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.69314718055994495</v>
+        <v>2.55208529762097</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.09861228866811</v>
+        <v>2.8714761180548698</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.3862943611198899</v>
+        <v>3.58511918917594</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.3862943611198899</v>
+        <v>2.9728457116721199</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.3862943611198899</v>
+        <v>3.9922071020166698</v>
       </c>
       <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.3862943611198899</v>
+        <v>2.2718685126965599</v>
       </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.3862943611198899</v>
+        <v>2.6156305770275501</v>
       </c>
       <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.6094379124341001</v>
+        <v>2.5993019270997899</v>
       </c>
       <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1.6094379124341001</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.7917594692280501</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1.9061547465398501</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1.9061547465398501</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1.9459101490553099</v>
-      </c>
-      <c r="C21">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1.9459101490553099</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>1.9459101490553099</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1.9459101490553099</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>2.1639556568820599</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2.2718685126965599</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>2.55208529762097</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>2.5993019270997899</v>
-      </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>2.6156305770275501</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>2.6156305770275501</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>2.8714761180548698</v>
-      </c>
-      <c r="C31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>2.8903717578961601</v>
-      </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>2.9728457116721199</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>3.0164539990864898</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>3.4690584868788599</v>
-      </c>
-      <c r="C35">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>3.5777347251774998</v>
-      </c>
-      <c r="C36">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>3.58511918917594</v>
-      </c>
-      <c r="C37">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>3.7010939223403501</v>
-      </c>
-      <c r="C38">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>3.7882875076101201</v>
-      </c>
-      <c r="C39">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>3.9922071020166698</v>
-      </c>
-      <c r="C40">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>4.0686490048204504</v>
-      </c>
-      <c r="C41">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
